--- a/Code/Results/Cases/Case_2_163/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_163/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.140969985159444</v>
+        <v>0.799958874454461</v>
       </c>
       <c r="C2">
-        <v>0.08279402813575842</v>
+        <v>0.1067715799096476</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.07202189643903978</v>
+        <v>0.1046706745146118</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746263</v>
       </c>
       <c r="G2">
-        <v>1.232853256927797</v>
+        <v>1.63393404254073</v>
       </c>
       <c r="H2">
-        <v>0.8351866623697788</v>
+        <v>1.455794365372839</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8724655272589814</v>
+        <v>0.4078566521046696</v>
       </c>
       <c r="L2">
-        <v>0.2440174377360762</v>
+        <v>0.2041937060047871</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9956287273449789</v>
+        <v>0.7641185369060679</v>
       </c>
       <c r="C3">
-        <v>0.08090343260658273</v>
+        <v>0.1059563866660902</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.06684234876690809</v>
+        <v>0.1038750138918836</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.387822817061874</v>
       </c>
       <c r="G3">
-        <v>1.19029876193926</v>
+        <v>1.629867427624916</v>
       </c>
       <c r="H3">
-        <v>0.8240691897364343</v>
+        <v>1.459036684422259</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7556136077917301</v>
+        <v>0.376563955205711</v>
       </c>
       <c r="L3">
-        <v>0.2155704770556781</v>
+        <v>0.1976209913672307</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9073825272931231</v>
+        <v>0.7425441335375353</v>
       </c>
       <c r="C4">
-        <v>0.07973931328845296</v>
+        <v>0.1054441480863524</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.06375999883131911</v>
+        <v>0.1034352773344018</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305168915</v>
       </c>
       <c r="G4">
-        <v>1.166403747120654</v>
+        <v>1.628179123928149</v>
       </c>
       <c r="H4">
-        <v>0.8184895161672472</v>
+        <v>1.461583905893761</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.684442818229229</v>
+        <v>0.3575402849988194</v>
       </c>
       <c r="L4">
-        <v>0.1983918804930624</v>
+        <v>0.1937017606587119</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8716428227255619</v>
+        <v>0.733861256288435</v>
       </c>
       <c r="C5">
-        <v>0.07926377264443474</v>
+        <v>0.10523246273452</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.06252695075443171</v>
+        <v>0.1032683607074141</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>1.157193888780938</v>
+        <v>1.627694002172944</v>
       </c>
       <c r="H5">
-        <v>0.8165137264410305</v>
+        <v>1.462761735369867</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6555634788674212</v>
+        <v>0.349836000203041</v>
       </c>
       <c r="L5">
-        <v>0.1914569795319068</v>
+        <v>0.1921339338030918</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8657208396492422</v>
+        <v>0.7324260557452078</v>
       </c>
       <c r="C6">
-        <v>0.07918473088220779</v>
+        <v>0.1051971347308758</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.06232355069380446</v>
+        <v>0.1032413862217254</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>1.155695503737107</v>
+        <v>1.6276256878959</v>
       </c>
       <c r="H6">
-        <v>0.8162032104239501</v>
+        <v>1.462965754647584</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6507749287243598</v>
+        <v>0.3485596154509381</v>
       </c>
       <c r="L6">
-        <v>0.1903092082027058</v>
+        <v>0.1918753668341964</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9068996693905547</v>
+        <v>0.7424265920029995</v>
       </c>
       <c r="C7">
-        <v>0.07973290505769981</v>
+        <v>0.1054413051432839</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.06374327827580473</v>
+        <v>0.1034329765080102</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>1.166277447271099</v>
+        <v>1.628171760582532</v>
       </c>
       <c r="H7">
-        <v>0.8184616832515133</v>
+        <v>1.461599224545452</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6840528696132395</v>
+        <v>0.3574361876456891</v>
       </c>
       <c r="L7">
-        <v>0.198298097516215</v>
+        <v>0.1936804977811732</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.090632195271525</v>
+        <v>0.787511696376157</v>
       </c>
       <c r="C8">
-        <v>0.0821426266795342</v>
+        <v>0.1064929306021547</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.07021468017993016</v>
+        <v>0.1043862060051275</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813336</v>
       </c>
       <c r="G8">
-        <v>1.217695680595881</v>
+        <v>1.632363766450908</v>
       </c>
       <c r="H8">
-        <v>0.8310850309462268</v>
+        <v>1.456796768202892</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8320417324625282</v>
+        <v>0.3970275649936639</v>
       </c>
       <c r="L8">
-        <v>0.2341448697760882</v>
+        <v>0.2019032701317656</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.46022298100371</v>
+        <v>0.8793409728630763</v>
       </c>
       <c r="C9">
-        <v>0.08685854081056021</v>
+        <v>0.1084623716825064</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.08375920589749697</v>
+        <v>0.1066425885496294</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>1.337904937733924</v>
+        <v>1.64702298814268</v>
       </c>
       <c r="H9">
-        <v>0.8664805865209502</v>
+        <v>1.451799630325709</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.127892687276386</v>
+        <v>0.4761710763863221</v>
       </c>
       <c r="L9">
-        <v>0.3070620581471815</v>
+        <v>0.2189526822665044</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.739567922864097</v>
+        <v>0.9488892631993622</v>
       </c>
       <c r="C10">
-        <v>0.0903435206487373</v>
+        <v>0.1098529993078117</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.09434765063905814</v>
+        <v>0.1085365086331542</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>1.440532517995905</v>
+        <v>1.661752823435734</v>
       </c>
       <c r="H10">
-        <v>0.9001050145953116</v>
+        <v>1.450831983076966</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.350328450263589</v>
+        <v>0.5352366695822184</v>
       </c>
       <c r="L10">
-        <v>0.3627437333171173</v>
+        <v>0.2320451193691468</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.868870993349248</v>
+        <v>0.9809807077458288</v>
       </c>
       <c r="C11">
-        <v>0.09193998182678342</v>
+        <v>0.1104734654128166</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.09933142392686989</v>
+        <v>0.1094494405650224</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>1.490939783015847</v>
+        <v>1.669321225928627</v>
       </c>
       <c r="H11">
-        <v>0.917333900051176</v>
+        <v>1.45098089062526</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.453024428760813</v>
+        <v>0.5623074566917126</v>
       </c>
       <c r="L11">
-        <v>0.3886580455093451</v>
+        <v>0.2381248303260435</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.918203094608913</v>
+        <v>0.9931979675714615</v>
       </c>
       <c r="C12">
-        <v>0.09254675016006786</v>
+        <v>0.1107066771942726</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1012452576831926</v>
+        <v>0.1098025306382127</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>1.510619201903324</v>
+        <v>1.672312515796932</v>
       </c>
       <c r="H12">
-        <v>0.9241616050007337</v>
+        <v>1.451122133191461</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.492166467598992</v>
+        <v>0.5725873678381674</v>
       </c>
       <c r="L12">
-        <v>0.3985665892021757</v>
+        <v>0.2404448949145603</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.907561379725337</v>
+        <v>0.9905638791410638</v>
       </c>
       <c r="C13">
-        <v>0.09241596213097836</v>
+        <v>0.110656528482572</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1008318535215054</v>
+        <v>0.1097261581192335</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>1.506353638692872</v>
+        <v>1.671662706937155</v>
       </c>
       <c r="H13">
-        <v>0.9226772056230175</v>
+        <v>1.451087937860137</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.483724647480244</v>
+        <v>0.570372127525701</v>
       </c>
       <c r="L13">
-        <v>0.3964281745999187</v>
+        <v>0.2399444354789324</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.872921914939468</v>
+        <v>0.9819845295315872</v>
       </c>
       <c r="C14">
-        <v>0.09198985262816706</v>
+        <v>0.110492686863239</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.09948832781165251</v>
+        <v>0.1094783415716698</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>1.492546630032479</v>
+        <v>1.669564806957197</v>
       </c>
       <c r="H14">
-        <v>0.9178893819214693</v>
+        <v>1.450990809302965</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.456239370750609</v>
+        <v>0.5631526152227764</v>
       </c>
       <c r="L14">
-        <v>0.3894712477309525</v>
+        <v>0.2383153465293759</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.851753631727235</v>
+        <v>0.9767378767456307</v>
       </c>
       <c r="C15">
-        <v>0.09172915755303279</v>
+        <v>0.110392101860306</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.09866892204523126</v>
+        <v>0.1093275080455349</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>1.484168197141685</v>
+        <v>1.668296115901626</v>
       </c>
       <c r="H15">
-        <v>0.9149970255512585</v>
+        <v>1.450942370080952</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.439437970116103</v>
+        <v>0.5587341993902157</v>
       </c>
       <c r="L15">
-        <v>0.3852227009779909</v>
+        <v>0.2373198017288303</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.731166449338019</v>
+        <v>0.9468011133989194</v>
       </c>
       <c r="C16">
-        <v>0.09023946363139856</v>
+        <v>0.1098122061557376</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.09402552485099491</v>
+        <v>0.1084778797674524</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>1.437317850908784</v>
+        <v>1.661275716050341</v>
       </c>
       <c r="H16">
-        <v>0.89902009203837</v>
+        <v>1.450834117959801</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.343650415839392</v>
+        <v>0.5334715692610246</v>
       </c>
       <c r="L16">
-        <v>0.3610628762280754</v>
+        <v>0.2316502885245768</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.657793099233402</v>
+        <v>0.9285518373754087</v>
       </c>
       <c r="C17">
-        <v>0.08932885476476571</v>
+        <v>0.109453350241381</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.09122148942942232</v>
+        <v>0.1079698155364319</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>1.409568167233857</v>
+        <v>1.657191545362025</v>
       </c>
       <c r="H17">
-        <v>0.8897312754779421</v>
+        <v>1.450918692029518</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.285299085552509</v>
+        <v>0.5180252486725578</v>
       </c>
       <c r="L17">
-        <v>0.3463990249590978</v>
+        <v>0.2282039539361307</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.615797271246379</v>
+        <v>0.9180980468719326</v>
       </c>
       <c r="C18">
-        <v>0.08880610239509323</v>
+        <v>0.1092458033690917</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.089624238117743</v>
+        <v>0.1076824267132039</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>1.393953909614055</v>
+        <v>1.654924081740759</v>
       </c>
       <c r="H18">
-        <v>0.8845688700185406</v>
+        <v>1.451022776596545</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.251876591750346</v>
+        <v>0.5091599158341751</v>
       </c>
       <c r="L18">
-        <v>0.338019039687282</v>
+        <v>0.2262333754005112</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.601612310095248</v>
+        <v>0.9145659177460459</v>
       </c>
       <c r="C19">
-        <v>0.08862926237302915</v>
+        <v>0.1091753353482687</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.08908603340231736</v>
+        <v>0.1075859526031024</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>1.388725096920439</v>
+        <v>1.654170363931783</v>
       </c>
       <c r="H19">
-        <v>0.8828511908519658</v>
+        <v>1.451067535330594</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.240583242686682</v>
+        <v>0.5061615325871003</v>
       </c>
       <c r="L19">
-        <v>0.3351907141795465</v>
+        <v>0.2255681745165958</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.665582107079871</v>
+        <v>0.930490085772874</v>
       </c>
       <c r="C20">
-        <v>0.08942568226190417</v>
+        <v>0.109491669305811</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.0915183559544559</v>
+        <v>0.1080233993447024</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>1.412485903775377</v>
+        <v>1.657617858736216</v>
       </c>
       <c r="H20">
-        <v>0.890701250493322</v>
+        <v>1.450903950120477</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.291495978972534</v>
+        <v>0.5196675726817261</v>
       </c>
       <c r="L20">
-        <v>0.3479543211126526</v>
+        <v>0.2285696152134165</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.883085981570673</v>
+        <v>0.9845027327428113</v>
       </c>
       <c r="C21">
-        <v>0.09211494563962219</v>
+        <v>0.1105408584831196</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.09988221071030168</v>
+        <v>0.1095509309820173</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>1.496585562197907</v>
+        <v>1.670177606267657</v>
       </c>
       <c r="H21">
-        <v>0.9192872293046435</v>
+        <v>1.451017034242398</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.464305281327086</v>
+        <v>0.5652723810962641</v>
       </c>
       <c r="L21">
-        <v>0.3915119824601589</v>
+        <v>0.2387933661301673</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.027406732169652</v>
+        <v>1.02018142565521</v>
       </c>
       <c r="C22">
-        <v>0.09388583844884124</v>
+        <v>0.1112163916819995</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1055048046182385</v>
+        <v>0.1105922899407759</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>1.555025975354852</v>
+        <v>1.679116714184858</v>
       </c>
       <c r="H22">
-        <v>0.9397524980450669</v>
+        <v>1.451585605181805</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.578742031291398</v>
+        <v>0.5952454935945468</v>
       </c>
       <c r="L22">
-        <v>0.4205412687638841</v>
+        <v>0.2455789863393534</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.950164638647038</v>
+        <v>1.001104517677049</v>
       </c>
       <c r="C23">
-        <v>0.09293923616748145</v>
+        <v>0.110856777617542</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1024887064012887</v>
+        <v>0.110032561741658</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>1.523497171225443</v>
+        <v>1.674278722934105</v>
       </c>
       <c r="H23">
-        <v>0.928657598476633</v>
+        <v>1.451236838895881</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.517515174003137</v>
+        <v>0.5792329937249008</v>
       </c>
       <c r="L23">
-        <v>0.4049923659239028</v>
+        <v>0.2419478765084904</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.662060116183682</v>
+        <v>0.9296136854048029</v>
       </c>
       <c r="C24">
-        <v>0.0893819042020354</v>
+        <v>0.1094743491069892</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.09138409661007785</v>
+        <v>0.107999159452369</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>1.411165742093203</v>
+        <v>1.657424871487649</v>
       </c>
       <c r="H24">
-        <v>0.8902621726996358</v>
+        <v>1.450910442177275</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.288693978485497</v>
+        <v>0.5189250313773357</v>
       </c>
       <c r="L24">
-        <v>0.3472510153981148</v>
+        <v>0.2284042662194565</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.359033812660357</v>
+        <v>0.854133089492251</v>
       </c>
       <c r="C25">
-        <v>0.08558127140798888</v>
+        <v>0.1079394948699779</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.07999213135570216</v>
+        <v>0.1059907183835378</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>1.303065301093667</v>
+        <v>1.642364404426402</v>
       </c>
       <c r="H25">
-        <v>0.855654737767793</v>
+        <v>1.452677327656133</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.047092663863651</v>
+        <v>0.4545994184190079</v>
       </c>
       <c r="L25">
-        <v>0.28700509962745</v>
+        <v>0.2142411172982861</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_163/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_163/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.799958874454461</v>
+        <v>1.140969985159586</v>
       </c>
       <c r="C2">
-        <v>0.1067715799096476</v>
+        <v>0.08279402813561276</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1046706745146118</v>
+        <v>0.07202189643902202</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746263</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>1.63393404254073</v>
+        <v>1.23285325692774</v>
       </c>
       <c r="H2">
-        <v>1.455794365372839</v>
+        <v>0.8351866623696509</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4078566521046696</v>
+        <v>0.8724655272588677</v>
       </c>
       <c r="L2">
-        <v>0.2041937060047871</v>
+        <v>0.2440174377360194</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7641185369060679</v>
+        <v>0.9956287273450073</v>
       </c>
       <c r="C3">
-        <v>0.1059563866660902</v>
+        <v>0.08090343260669286</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1038750138918836</v>
+        <v>0.06684234876689032</v>
       </c>
       <c r="F3">
-        <v>0.387822817061874</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>1.629867427624916</v>
+        <v>1.190298761939189</v>
       </c>
       <c r="H3">
-        <v>1.459036684422259</v>
+        <v>0.8240691897364485</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.376563955205711</v>
+        <v>0.755613607791787</v>
       </c>
       <c r="L3">
-        <v>0.1976209913672307</v>
+        <v>0.2155704770556781</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7425441335375353</v>
+        <v>0.9073825272930378</v>
       </c>
       <c r="C4">
-        <v>0.1054441480863524</v>
+        <v>0.07973931328821138</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1034352773344018</v>
+        <v>0.06375999883130135</v>
       </c>
       <c r="F4">
-        <v>0.3531389305168915</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>1.628179123928149</v>
+        <v>1.166403747120626</v>
       </c>
       <c r="H4">
-        <v>1.461583905893761</v>
+        <v>0.8184895161672614</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3575402849988194</v>
+        <v>0.684442818229229</v>
       </c>
       <c r="L4">
-        <v>0.1937017606587119</v>
+        <v>0.1983918804930767</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.733861256288435</v>
+        <v>0.8716428227254767</v>
       </c>
       <c r="C5">
-        <v>0.10523246273452</v>
+        <v>0.07926377264443829</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1032683607074141</v>
+        <v>0.06252695075440329</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>1.627694002172944</v>
+        <v>1.157193888781009</v>
       </c>
       <c r="H5">
-        <v>1.462761735369867</v>
+        <v>0.8165137264410447</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.349836000203041</v>
+        <v>0.6555634788672791</v>
       </c>
       <c r="L5">
-        <v>0.1921339338030918</v>
+        <v>0.1914569795319778</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7324260557452078</v>
+        <v>0.865720839649299</v>
       </c>
       <c r="C6">
-        <v>0.1051971347308758</v>
+        <v>0.07918473088221134</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1032413862217254</v>
+        <v>0.06232355069377959</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>1.6276256878959</v>
+        <v>1.155695503737093</v>
       </c>
       <c r="H6">
-        <v>1.462965754647584</v>
+        <v>0.8162032104238506</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3485596154509381</v>
+        <v>0.6507749287243314</v>
       </c>
       <c r="L6">
-        <v>0.1918753668341964</v>
+        <v>0.1903092082027058</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7424265920029995</v>
+        <v>0.9068996693905831</v>
       </c>
       <c r="C7">
-        <v>0.1054413051432839</v>
+        <v>0.07973290505793784</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1034329765080102</v>
+        <v>0.06374327827583315</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>1.628171760582532</v>
+        <v>1.166277447271227</v>
       </c>
       <c r="H7">
-        <v>1.461599224545452</v>
+        <v>0.818461683251428</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3574361876456891</v>
+        <v>0.6840528696131685</v>
       </c>
       <c r="L7">
-        <v>0.1936804977811732</v>
+        <v>0.1982980975161013</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.787511696376157</v>
+        <v>1.090632195271468</v>
       </c>
       <c r="C8">
-        <v>0.1064929306021547</v>
+        <v>0.08214262667953776</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1043862060051275</v>
+        <v>0.07021468017993016</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813336</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>1.632363766450908</v>
+        <v>1.21769568059581</v>
       </c>
       <c r="H8">
-        <v>1.456796768202892</v>
+        <v>0.8310850309462268</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3970275649936639</v>
+        <v>0.832041732462443</v>
       </c>
       <c r="L8">
-        <v>0.2019032701317656</v>
+        <v>0.2341448697761734</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8793409728630763</v>
+        <v>1.460222981003653</v>
       </c>
       <c r="C9">
-        <v>0.1084623716825064</v>
+        <v>0.08685854081082667</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1066425885496294</v>
+        <v>0.08375920589752184</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>1.64702298814268</v>
+        <v>1.337904937733981</v>
       </c>
       <c r="H9">
-        <v>1.451799630325709</v>
+        <v>0.8664805865210354</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4761710763863221</v>
+        <v>1.127892687276415</v>
       </c>
       <c r="L9">
-        <v>0.2189526822665044</v>
+        <v>0.3070620581471957</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9488892631993622</v>
+        <v>1.739567922864069</v>
       </c>
       <c r="C10">
-        <v>0.1098529993078117</v>
+        <v>0.09034352064871598</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1085365086331542</v>
+        <v>0.0943476506390617</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>1.661752823435734</v>
+        <v>1.44053251799582</v>
       </c>
       <c r="H10">
-        <v>1.450831983076966</v>
+        <v>0.9001050145951979</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5352366695822184</v>
+        <v>1.350328450263589</v>
       </c>
       <c r="L10">
-        <v>0.2320451193691468</v>
+        <v>0.3627437333170747</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9809807077458288</v>
+        <v>1.868870993349191</v>
       </c>
       <c r="C11">
-        <v>0.1104734654128166</v>
+        <v>0.09193998182679053</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1094494405650224</v>
+        <v>0.09933142392686989</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>1.669321225928627</v>
+        <v>1.490939783015818</v>
       </c>
       <c r="H11">
-        <v>1.45098089062526</v>
+        <v>0.9173339000512897</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5623074566917126</v>
+        <v>1.453024428760756</v>
       </c>
       <c r="L11">
-        <v>0.2381248303260435</v>
+        <v>0.388658045509402</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9931979675714615</v>
+        <v>1.918203094608941</v>
       </c>
       <c r="C12">
-        <v>0.1107066771942726</v>
+        <v>0.09254675016008207</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1098025306382127</v>
+        <v>0.1012452576831997</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>1.672312515796932</v>
+        <v>1.510619201903154</v>
       </c>
       <c r="H12">
-        <v>1.451122133191461</v>
+        <v>0.9241616050007337</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5725873678381674</v>
+        <v>1.49216646759902</v>
       </c>
       <c r="L12">
-        <v>0.2404448949145603</v>
+        <v>0.3985665892023036</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9905638791410638</v>
+        <v>1.907561379725422</v>
       </c>
       <c r="C13">
-        <v>0.110656528482572</v>
+        <v>0.09241596213077941</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1097261581192335</v>
+        <v>0.1008318535214876</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>1.671662706937155</v>
+        <v>1.506353638692815</v>
       </c>
       <c r="H13">
-        <v>1.451087937860137</v>
+        <v>0.9226772056229038</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.570372127525701</v>
+        <v>1.483724647480301</v>
       </c>
       <c r="L13">
-        <v>0.2399444354789324</v>
+        <v>0.3964281746000751</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9819845295315872</v>
+        <v>1.872921914939525</v>
       </c>
       <c r="C14">
-        <v>0.110492686863239</v>
+        <v>0.09198985262818837</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1094783415716698</v>
+        <v>0.09948832781162409</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>1.669564806957197</v>
+        <v>1.492546630032479</v>
       </c>
       <c r="H14">
-        <v>1.450990809302965</v>
+        <v>0.9178893819214693</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.5631526152227764</v>
+        <v>1.456239370750694</v>
       </c>
       <c r="L14">
-        <v>0.2383153465293759</v>
+        <v>0.389471247730981</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9767378767456307</v>
+        <v>1.851753631727348</v>
       </c>
       <c r="C15">
-        <v>0.110392101860306</v>
+        <v>0.09172915755303279</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1093275080455349</v>
+        <v>0.0986689220452277</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>1.668296115901626</v>
+        <v>1.484168197141713</v>
       </c>
       <c r="H15">
-        <v>1.450942370080952</v>
+        <v>0.9149970255513722</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.5587341993902157</v>
+        <v>1.43943797011616</v>
       </c>
       <c r="L15">
-        <v>0.2373198017288303</v>
+        <v>0.3852227009780762</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9468011133989194</v>
+        <v>1.731166449337962</v>
       </c>
       <c r="C16">
-        <v>0.1098122061557376</v>
+        <v>0.09023946363110014</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1084778797674524</v>
+        <v>0.09402552485100557</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>1.661275716050341</v>
+        <v>1.437317850908755</v>
       </c>
       <c r="H16">
-        <v>1.450834117959801</v>
+        <v>0.8990200920383415</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5334715692610246</v>
+        <v>1.343650415839392</v>
       </c>
       <c r="L16">
-        <v>0.2316502885245768</v>
+        <v>0.3610628762281181</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9285518373754087</v>
+        <v>1.65779309923343</v>
       </c>
       <c r="C17">
-        <v>0.109453350241381</v>
+        <v>0.08932885476461649</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1079698155364319</v>
+        <v>0.09122148942943298</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>1.657191545362025</v>
+        <v>1.409568167233857</v>
       </c>
       <c r="H17">
-        <v>1.450918692029518</v>
+        <v>0.8897312754780557</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5180252486725578</v>
+        <v>1.285299085552396</v>
       </c>
       <c r="L17">
-        <v>0.2282039539361307</v>
+        <v>0.3463990249591262</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9180980468719326</v>
+        <v>1.61579727124618</v>
       </c>
       <c r="C18">
-        <v>0.1092458033690917</v>
+        <v>0.08880610239480546</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1076824267132039</v>
+        <v>0.08962423811770392</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>1.654924081740759</v>
+        <v>1.393953909613998</v>
       </c>
       <c r="H18">
-        <v>1.451022776596545</v>
+        <v>0.8845688700185406</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5091599158341751</v>
+        <v>1.251876591750289</v>
       </c>
       <c r="L18">
-        <v>0.2262333754005112</v>
+        <v>0.3380190396873104</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9145659177460459</v>
+        <v>1.601612310095248</v>
       </c>
       <c r="C19">
-        <v>0.1091753353482687</v>
+        <v>0.08862926237302204</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1075859526031024</v>
+        <v>0.08908603340233157</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>1.654170363931783</v>
+        <v>1.38872509692041</v>
       </c>
       <c r="H19">
-        <v>1.451067535330594</v>
+        <v>0.8828511908519658</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5061615325871003</v>
+        <v>1.240583242686711</v>
       </c>
       <c r="L19">
-        <v>0.2255681745165958</v>
+        <v>0.3351907141794754</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.930490085772874</v>
+        <v>1.6655821070797</v>
       </c>
       <c r="C20">
-        <v>0.109491669305811</v>
+        <v>0.08942568226184733</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1080233993447024</v>
+        <v>0.09151835595449143</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>1.657617858736216</v>
+        <v>1.412485903775519</v>
       </c>
       <c r="H20">
-        <v>1.450903950120477</v>
+        <v>0.8907012504934357</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5196675726817261</v>
+        <v>1.291495978972563</v>
       </c>
       <c r="L20">
-        <v>0.2285696152134165</v>
+        <v>0.3479543211126099</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9845027327428113</v>
+        <v>1.883085981570758</v>
       </c>
       <c r="C21">
-        <v>0.1105408584831196</v>
+        <v>0.09211494563962219</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1095509309820173</v>
+        <v>0.09988221071030523</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>1.670177606267657</v>
+        <v>1.496585562197851</v>
       </c>
       <c r="H21">
-        <v>1.451017034242398</v>
+        <v>0.9192872293047571</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5652723810962641</v>
+        <v>1.464305281327029</v>
       </c>
       <c r="L21">
-        <v>0.2387933661301673</v>
+        <v>0.3915119824602016</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02018142565521</v>
+        <v>2.027406732169538</v>
       </c>
       <c r="C22">
-        <v>0.1112163916819995</v>
+        <v>0.09388583844867071</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1105922899407759</v>
+        <v>0.1055048046182634</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>1.679116714184858</v>
+        <v>1.555025975354823</v>
       </c>
       <c r="H22">
-        <v>1.451585605181805</v>
+        <v>0.9397524980451806</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5952454935945468</v>
+        <v>1.578742031291256</v>
       </c>
       <c r="L22">
-        <v>0.2455789863393534</v>
+        <v>0.4205412687638415</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.001104517677049</v>
+        <v>1.950164638647038</v>
       </c>
       <c r="C23">
-        <v>0.110856777617542</v>
+        <v>0.09293923616716881</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.110032561741658</v>
+        <v>0.1024887064012781</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>1.674278722934105</v>
+        <v>1.523497171225443</v>
       </c>
       <c r="H23">
-        <v>1.451236838895881</v>
+        <v>0.928657598476633</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5792329937249008</v>
+        <v>1.517515174003051</v>
       </c>
       <c r="L23">
-        <v>0.2419478765084904</v>
+        <v>0.4049923659238459</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9296136854048029</v>
+        <v>1.662060116183682</v>
       </c>
       <c r="C24">
-        <v>0.1094743491069892</v>
+        <v>0.08938190420204251</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.107999159452369</v>
+        <v>0.0913840966100814</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>1.657424871487649</v>
+        <v>1.411165742093146</v>
       </c>
       <c r="H24">
-        <v>1.450910442177275</v>
+        <v>0.8902621726996642</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5189250313773357</v>
+        <v>1.288693978485583</v>
       </c>
       <c r="L24">
-        <v>0.2284042662194565</v>
+        <v>0.3472510153981432</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.854133089492251</v>
+        <v>1.359033812660329</v>
       </c>
       <c r="C25">
-        <v>0.1079394948699779</v>
+        <v>0.08558127140771887</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1059907183835378</v>
+        <v>0.0799921313556986</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>1.642364404426402</v>
+        <v>1.303065301093596</v>
       </c>
       <c r="H25">
-        <v>1.452677327656133</v>
+        <v>0.8556547377676651</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4545994184190079</v>
+        <v>1.047092663863793</v>
       </c>
       <c r="L25">
-        <v>0.2142411172982861</v>
+        <v>0.2870050996274642</v>
       </c>
       <c r="M25">
         <v>0</v>
